--- a/data/trans_camb/P69_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Habitat-trans_camb.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 0,0</t>
+          <t>-19,67; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 0,0</t>
+          <t>-30,48; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 0,0</t>
+          <t>-14,92; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 0,0</t>
+          <t>-13,71; 0,0</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 0,0</t>
+          <t>-19,67; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 0,0</t>
+          <t>-30,48; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 0,0</t>
+          <t>-14,92; 0,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 0,0</t>
+          <t>-13,71; 0,0</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,19</t>
+          <t>0,0; 7,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,49</t>
+          <t>0,0; 7,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,73</t>
+          <t>0,0; 9,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,0</t>
+          <t>-1,86; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,5</t>
+          <t>0,0; 5,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,63</t>
+          <t>0,0; 5,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,46</t>
+          <t>-0,24; 5,64</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,92</t>
+          <t>0,0; 8,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,1</t>
+          <t>0,0; 7,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,38</t>
+          <t>0,0; 10,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,0</t>
+          <t>-1,86; 0,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,82</t>
+          <t>0,0; 6,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,97</t>
+          <t>0,0; 6,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,78</t>
+          <t>-0,24; 5,99</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,0</t>
+          <t>0,0; 3,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,68</t>
+          <t>-6,15; 0,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,65</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -0,41</t>
+          <t>-5,23; -0,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 2,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,77</t>
+          <t>-3,54; 0,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,04</t>
+          <t>-2,11; 0,98</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,16</t>
+          <t>0,0; 3,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,68</t>
+          <t>-6,16; 0,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -0,41</t>
+          <t>-5,23; -0,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,52</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,78</t>
+          <t>-3,57; 0,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,05</t>
+          <t>-2,12; 0,99</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,56</t>
+          <t>0,0; 5,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,67</t>
+          <t>-1,78; 2,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 1,82</t>
+          <t>-8,27; 1,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 0,0</t>
+          <t>-4,67; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,27</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,09</t>
+          <t>-1,1; 2,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,26</t>
+          <t>-3,57; 1,3</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>0,0; 5,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,8</t>
+          <t>-1,78; 2,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 1,86</t>
+          <t>-8,32; 1,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 0,0</t>
+          <t>-4,67; 0,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,38</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,14</t>
+          <t>-1,1; 2,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 1,28</t>
+          <t>-3,61; 1,32</t>
         </is>
       </c>
     </row>
@@ -1549,17 +1549,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,77</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,26</t>
+          <t>-3,59; 1,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,25</t>
+          <t>-3,9; 1,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,27 +1569,27 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,0</t>
+          <t>-8,46; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,0</t>
+          <t>-3,87; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 0,38</t>
+          <t>-3,96; 0,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,66</t>
+          <t>-2,33; 0,74</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,92</t>
+          <t>0,0; 3,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,27</t>
+          <t>-3,62; 1,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,27</t>
+          <t>-3,9; 1,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1675,27 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,0</t>
+          <t>-8,46; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,0</t>
+          <t>-3,87; 0,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,38</t>
+          <t>-3,96; 0,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,66</t>
+          <t>-2,36; 0,75</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,62</t>
+          <t>-0,3; 1,62</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,94</t>
+          <t>-1,8; 0,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,09</t>
+          <t>-1,24; 1,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,12; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>-2,32; -0,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,13</t>
+          <t>-0,17; 1,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,56</t>
+          <t>-1,26; 0,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,43</t>
+          <t>-1,32; 0,39</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,65</t>
+          <t>-0,29; 1,65</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,95</t>
+          <t>-1,81; 0,9</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,11</t>
+          <t>-1,24; 1,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1891,27 +1891,27 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,12; 0,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>-2,32; -0,44</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,15</t>
+          <t>-0,17; 1,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,57</t>
+          <t>-1,27; 0,58</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,43</t>
+          <t>-1,32; 0,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 0,0</t>
+          <t>-19,42; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 0,0</t>
+          <t>-12,29; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 0,0</t>
+          <t>-19,42; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 0,0</t>
+          <t>-12,29; 0,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,9</t>
+          <t>0,0; 8,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,23</t>
+          <t>0,0; 7,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,09</t>
+          <t>0,0; 7,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,67</t>
+          <t>0,0; 6,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,66</t>
+          <t>0,0; 5,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,64</t>
+          <t>-0,16; 5,73</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,58</t>
+          <t>0,0; 8,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,8</t>
+          <t>0,0; 8,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,0</t>
+          <t>0,0; 7,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,01</t>
+          <t>0,0; 7,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,0</t>
+          <t>0,0; 5,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,99</t>
+          <t>-0,16; 6,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,96</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 0,68</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,0; 3,34</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,15; 0,68</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,73</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -1147,17 +1147,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,45</t>
+          <t>0,0; 2,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,54</t>
+          <t>-3,4; 0,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,98</t>
+          <t>-1,79; 1,05</t>
         </is>
       </c>
     </row>
@@ -1223,19 +1223,19 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,13</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; 0,68</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,0; 3,46</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 0,68</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,81</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,51</t>
+          <t>-3,4; 0,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,99</t>
+          <t>-1,79; 1,06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,2</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,86</t>
+          <t>-1,78; 2,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 1,84</t>
+          <t>-8,26; 1,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1363,17 +1363,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,0; 3,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,02</t>
+          <t>-1,09; 2,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,3</t>
+          <t>-3,55; 1,32</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,49</t>
+          <t>0,0; 5,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,93</t>
+          <t>-1,79; 2,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 1,87</t>
+          <t>-8,29; 1,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,75</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,07</t>
+          <t>-1,09; 2,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 1,32</t>
+          <t>-3,6; 1,33</t>
         </is>
       </c>
     </row>
@@ -1549,17 +1549,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,25</t>
+          <t>-4,09; 1,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,25</t>
+          <t>-3,87; 1,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 0,0</t>
+          <t>-8,7; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,97</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 0,45</t>
+          <t>-4,16; 0,38</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,74</t>
+          <t>-2,32; 0,69</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,28</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,27</t>
+          <t>-4,11; 1,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,26</t>
+          <t>-3,87; 1,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 0,0</t>
+          <t>-8,7; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 0,44</t>
+          <t>-4,18; 0,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,75</t>
+          <t>-2,35; 0,69</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,62</t>
+          <t>-0,28; 1,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,89</t>
+          <t>-1,87; 0,79</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,14</t>
+          <t>-1,4; 1,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,0</t>
+          <t>-2,98; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1795,17 +1795,17 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,08</t>
+          <t>-0,17; 1,06</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,58</t>
+          <t>-1,42; 0,52</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,39</t>
+          <t>-1,39; 0,42</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,65</t>
+          <t>-0,28; 1,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,9</t>
+          <t>-1,89; 0,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,15</t>
+          <t>-1,41; 1,17</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,0</t>
+          <t>-2,98; 0,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,17 +1901,17 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,1</t>
+          <t>-0,16; 1,07</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,58</t>
+          <t>-1,42; 0,52</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,4</t>
+          <t>-1,39; 0,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 0,0</t>
+          <t>-19,69; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 0,0</t>
+          <t>-28,98; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 0,0</t>
+          <t>-13,49; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 0,0</t>
+          <t>-13,56; 0,0</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 0,0</t>
+          <t>-19,69; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 0,0</t>
+          <t>-28,98; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 0,0</t>
+          <t>-13,49; 0,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 0,0</t>
+          <t>-13,56; 0,0</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,21</t>
+          <t>0,0; 8,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,66</t>
+          <t>0,0; 7,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,32</t>
+          <t>0,0; 7,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,0</t>
+          <t>-2,13; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,67</t>
+          <t>0,0; 5,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,55</t>
+          <t>0,0; 5,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 5,73</t>
+          <t>-0,28; 5,46</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,95</t>
+          <t>0,0; 8,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,29</t>
+          <t>0,0; 8,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,9</t>
+          <t>0,0; 8,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,0</t>
+          <t>-2,13; 0,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,15</t>
+          <t>0,0; 5,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,88</t>
+          <t>0,0; 5,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,1</t>
+          <t>-0,28; 5,78</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,96</t>
+          <t>0,0; 4,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 0,68</t>
+          <t>-5,68; 0,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,34</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -0,41</t>
+          <t>-5,55; -0,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,63</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,59</t>
+          <t>-3,8; 0,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,05</t>
+          <t>-1,86; 1,04</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,13</t>
+          <t>0,0; 4,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 0,68</t>
+          <t>-5,72; 0,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,46</t>
+          <t>0,0; 3,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -0,41</t>
+          <t>-5,55; -0,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,59</t>
+          <t>-3,84; 0,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,06</t>
+          <t>-1,86; 1,05</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,85</t>
+          <t>-1,75; 3,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 1,83</t>
+          <t>-7,83; 1,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,0</t>
+          <t>-5,3; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,54</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,45</t>
+          <t>-1,11; 2,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 1,32</t>
+          <t>-3,9; 1,26</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,02</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,93</t>
+          <t>-1,75; 3,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 1,87</t>
+          <t>-7,84; 1,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,0</t>
+          <t>-5,3; 0,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,48</t>
+          <t>-1,11; 2,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,33</t>
+          <t>-3,95; 1,28</t>
         </is>
       </c>
     </row>
@@ -1549,17 +1549,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 3,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 1,25</t>
+          <t>-3,21; 1,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,25</t>
+          <t>-4,02; 1,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,27 +1569,27 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 0,0</t>
+          <t>-8,31; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,0</t>
+          <t>-4,48; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,76</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 0,38</t>
+          <t>-4,09; 0,38</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,69</t>
+          <t>-2,53; 0,66</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,27</t>
+          <t>0,0; 3,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,26</t>
+          <t>-3,22; 1,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,26</t>
+          <t>-4,02; 1,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1675,27 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 0,0</t>
+          <t>-8,31; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,0</t>
+          <t>-4,48; 0,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 0,38</t>
+          <t>-4,08; 0,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,69</t>
+          <t>-2,59; 0,66</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,68</t>
+          <t>-0,28; 1,62</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,79</t>
+          <t>-2,02; 0,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,15</t>
+          <t>-1,5; 1,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,7; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,44</t>
+          <t>-2,47; -0,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,06</t>
+          <t>-0,15; 1,13</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,52</t>
+          <t>-1,34; 0,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,42</t>
+          <t>-1,32; 0,43</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,7</t>
+          <t>-0,28; 1,65</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,8</t>
+          <t>-2,04; 0,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,17</t>
+          <t>-1,51; 1,11</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1891,27 +1891,27 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,7; 0,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,44</t>
+          <t>-2,47; -0,42</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,07</t>
+          <t>-0,15; 1,15</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,52</t>
+          <t>-1,34; 0,57</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,43</t>
+          <t>-1,33; 0,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,41</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 0,0</t>
+          <t>-2,15; 3,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 7,69</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 5,05</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-28,98; 0,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 0,0</t>
+          <t>-1,47; 3,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 0,0</t>
+          <t>-1,26; 3,64</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,41%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 0,0</t>
+          <t>-2,15; 4,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 8,33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 5,32</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-28,98; 0,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 0,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 0,0</t>
+          <t>-1,47; 3,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 0,0</t>
+          <t>-1,27; 3,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,22 +873,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,47</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,19</t>
+          <t>0,0; 4,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,49</t>
+          <t>-5,68; 0,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,73</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,0</t>
+          <t>-5,73; -0,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,5</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,63</t>
+          <t>-3,8; 0,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,46</t>
+          <t>-1,88; 1,03</t>
         </is>
       </c>
     </row>
@@ -954,17 +954,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,22 +979,22 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-2,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-0,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>-0,47%</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,92</t>
+          <t>0,0; 4,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,1</t>
+          <t>-5,72; 0,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,38</t>
+          <t>0,0; 3,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,29 +1032,29 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,0</t>
+          <t>-5,73; -0,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,82</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,97</t>
+          <t>-3,84; 0,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,78</t>
+          <t>-1,88; 1,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,22 +1089,22 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,48</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,0</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,68</t>
+          <t>-1,75; 3,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,65</t>
+          <t>-6,73; 1,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -0,41</t>
+          <t>-3,72; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,77</t>
+          <t>-1,11; 2,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,04</t>
+          <t>-2,96; 1,35</t>
         </is>
       </c>
     </row>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,22 +1195,22 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,97%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>-0,48%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,16</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,68</t>
+          <t>-1,75; 3,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>-6,76; 1,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -0,41</t>
+          <t>-3,72; 0,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,52</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,78</t>
+          <t>-1,11; 2,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,05</t>
+          <t>-3,01; 1,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,17 +1280,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1300,27 +1300,27 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,56</t>
+          <t>0,0; 3,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,67</t>
+          <t>-3,21; 1,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 1,82</t>
+          <t>-4,03; 1,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,27 +1353,27 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 0,0</t>
+          <t>-4,06; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,27</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,09</t>
+          <t>-4,09; 0,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,26</t>
+          <t>-2,27; 0,75</t>
         </is>
       </c>
     </row>
@@ -1386,17 +1386,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>-0,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1406,27 +1406,27 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,99%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>-0,45%</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>0,0; 3,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,8</t>
+          <t>-3,22; 1,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 1,86</t>
+          <t>-4,04; 1,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,34 +1459,34 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 0,0</t>
+          <t>-4,06; 0,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,38</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,14</t>
+          <t>-4,08; 0,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 1,28</t>
+          <t>-2,28; 0,75</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1516,27 +1516,27 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -1549,17 +1549,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,77</t>
+          <t>-0,28; 1,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,26</t>
+          <t>-2,02; 0,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,25</t>
+          <t>-1,29; 1,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,27 +1569,27 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,0</t>
+          <t>-2,7; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,0</t>
+          <t>-2,42; -0,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>-0,15; 1,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 0,38</t>
+          <t>-1,34; 0,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,66</t>
+          <t>-1,19; 0,52</t>
         </is>
       </c>
     </row>
@@ -1602,17 +1602,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1622,27 +1622,27 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-0,73%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>-0,35%</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,92</t>
+          <t>-0,28; 1,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,27</t>
+          <t>-2,04; 0,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,27</t>
+          <t>-1,29; 1,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1675,255 +1675,39 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,0</t>
+          <t>-2,7; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,0</t>
+          <t>-2,42; -0,4</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>-0,15; 1,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,38</t>
+          <t>-1,34; 0,57</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,66</t>
+          <t>-1,2; 0,52</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 1,62</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 0,94</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 1,09</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 0,0</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; -0,42</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 1,13</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 0,56</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; 0,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0,58%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-0,3%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-0,03%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-0,51%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-1,09%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-0,33%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 1,65</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 0,95</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 1,11</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 0,0</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; -0,42</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 1,15</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 0,57</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 0,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P69_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Habitat-trans_camb.xlsx
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 3,91</t>
+          <t>-2,1; 4,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,69</t>
+          <t>0,0; 6,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,05</t>
+          <t>-2,02; 4,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,0</t>
+          <t>-1,55; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,14</t>
+          <t>-1,46; 2,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,43</t>
+          <t>0,0; 4,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,64</t>
+          <t>-1,3; 3,47</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,06</t>
+          <t>-2,1; 4,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,33</t>
+          <t>0,0; 6,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,32</t>
+          <t>-2,03; 4,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,0</t>
+          <t>-1,55; 0,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,18</t>
+          <t>-1,46; 3,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,74</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,78</t>
+          <t>-1,3; 3,55</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,0</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,68</t>
+          <t>-5,85; 0,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,65</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -0,42</t>
+          <t>-6,03; -0,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,77</t>
+          <t>-3,77; 0,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,03</t>
+          <t>-1,92; 1,04</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,16</t>
+          <t>0,0; 4,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,68</t>
+          <t>-5,98; 0,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>0,0; 3,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -0,42</t>
+          <t>-6,03; -0,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,52</t>
+          <t>0,0; 2,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,78</t>
+          <t>-3,79; 0,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,04</t>
+          <t>-1,92; 1,05</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,56</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,67</t>
+          <t>-1,75; 3,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 1,83</t>
+          <t>-7,3; 1,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,0</t>
+          <t>-4,65; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,27</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,09</t>
+          <t>-1,1; 2,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,35</t>
+          <t>-2,93; 1,54</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>0,0; 4,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,8</t>
+          <t>-1,75; 3,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 1,87</t>
+          <t>-7,35; 1,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,0</t>
+          <t>-4,65; 0,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,38</t>
+          <t>0,0; 2,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,14</t>
+          <t>-1,1; 2,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,37</t>
+          <t>-2,93; 1,57</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,77</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,26</t>
+          <t>-3,5; 1,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 1,25</t>
+          <t>-4,39; 1,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,27 +1353,27 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,0</t>
+          <t>-10,23; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 0,0</t>
+          <t>-2,93; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 0,38</t>
+          <t>-3,91; 0,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,75</t>
+          <t>-2,06; 0,77</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,92</t>
+          <t>0,0; 4,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,27</t>
+          <t>-3,53; 1,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 1,26</t>
+          <t>-4,42; 1,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,0</t>
+          <t>-10,23; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 0,0</t>
+          <t>-2,93; 0,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,38</t>
+          <t>-3,92; 0,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,75</t>
+          <t>-2,06; 0,77</t>
         </is>
       </c>
     </row>
@@ -1549,17 +1549,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,62</t>
+          <t>-0,35; 1,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,94</t>
+          <t>-1,79; 0,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,15</t>
+          <t>-1,43; 1,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,27 +1569,27 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,82; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,4</t>
+          <t>-2,36; -0,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,13</t>
+          <t>-0,05; 1,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,56</t>
+          <t>-1,39; 0,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,52</t>
+          <t>-1,19; 0,43</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,65</t>
+          <t>-0,35; 1,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,95</t>
+          <t>-1,79; 0,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,17</t>
+          <t>-1,44; 1,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1675,27 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,82; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,4</t>
+          <t>-2,36; -0,4</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,15</t>
+          <t>-0,05; 1,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,57</t>
+          <t>-1,39; 0,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,52</t>
+          <t>-1,2; 0,43</t>
         </is>
       </c>
     </row>
